--- a/Python Scripts/Cronograma Vigilancia/Cronograma_Vigilancia.xlsx
+++ b/Python Scripts/Cronograma Vigilancia/Cronograma_Vigilancia.xlsx
@@ -550,27 +550,27 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>Jairo Peña</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>Henry Flores</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>Jairo Prieto</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
           <t>Bernardo Conquet</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>Jairo Prieto</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="inlineStr">
-        <is>
-          <t>Jairo Peña</t>
-        </is>
-      </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="H4" s="5" t="inlineStr">
         <is>
           <t>Henry Flores</t>
-        </is>
-      </c>
-      <c r="H4" s="5" t="inlineStr">
-        <is>
-          <t>Jairo Peña</t>
         </is>
       </c>
     </row>
@@ -587,27 +587,27 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
+          <t>Miguel Contreras</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>Jairo Prieto</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>Bernardo Conquet</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="inlineStr">
+        <is>
           <t>Juan Gil</t>
         </is>
       </c>
-      <c r="E5" s="6" t="inlineStr">
+      <c r="H5" s="6" t="inlineStr">
         <is>
           <t>Miguel Contreras</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>Bernardo Conquet</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="inlineStr">
-        <is>
-          <t>Jairo Prieto</t>
-        </is>
-      </c>
-      <c r="H5" s="6" t="inlineStr">
-        <is>
-          <t>Bernardo Conquet</t>
         </is>
       </c>
     </row>
@@ -638,27 +638,27 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
+          <t>Jairo Prieto</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Bernardo Conquet</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Jairo Peña</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
           <t>Henry Flores</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Jairo Peña</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>Bernardo Conquet</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Jairo Prieto</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>Henry Flores</t>
         </is>
       </c>
     </row>
@@ -675,19 +675,19 @@
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
+          <t>Miguel Contreras</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>Jairo Prieto</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
           <t>Juan Gil</t>
         </is>
       </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>Jairo Prieto</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>Miguel Contreras</t>
-        </is>
-      </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
           <t>Bernardo Conquet</t>
@@ -695,7 +695,7 @@
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>Juan Gil</t>
+          <t>Jairo Prieto</t>
         </is>
       </c>
     </row>
@@ -726,27 +726,27 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>Jairo Prieto</t>
+          <t>Bernardo Conquet</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
+          <t>Jairo Peña</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
           <t>Henry Flores</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t>Bernardo Conquet</t>
-        </is>
-      </c>
       <c r="G10" s="5" t="inlineStr">
         <is>
+          <t>Jairo Prieto</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
           <t>Jairo Peña</t>
-        </is>
-      </c>
-      <c r="H10" s="5" t="inlineStr">
-        <is>
-          <t>Bernardo Conquet</t>
         </is>
       </c>
     </row>
@@ -763,14 +763,14 @@
       </c>
       <c r="D11" s="6" t="inlineStr">
         <is>
+          <t>Jairo Prieto</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
           <t>Bernardo Conquet</t>
         </is>
       </c>
-      <c r="E11" s="6" t="inlineStr">
-        <is>
-          <t>Jairo Prieto</t>
-        </is>
-      </c>
       <c r="F11" s="6" t="inlineStr">
         <is>
           <t>Juan Gil</t>
@@ -783,7 +783,7 @@
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>Juan Gil</t>
+          <t>Bernardo Conquet</t>
         </is>
       </c>
     </row>
@@ -814,27 +814,27 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
+          <t>Henry Flores</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>Jairo Prieto</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>Jairo Peña</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
           <t>Bernardo Conquet</t>
         </is>
       </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>Jairo Peña</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="inlineStr">
-        <is>
-          <t>Jairo Prieto</t>
-        </is>
-      </c>
-      <c r="G13" s="5" t="inlineStr">
-        <is>
-          <t>Henry Flores</t>
-        </is>
-      </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
-          <t>Jairo Peña</t>
+          <t>Jairo Prieto</t>
         </is>
       </c>
     </row>
@@ -851,27 +851,27 @@
       </c>
       <c r="D14" s="6" t="inlineStr">
         <is>
-          <t>Jairo Prieto</t>
+          <t>Juan Gil</t>
         </is>
       </c>
       <c r="E14" s="6" t="inlineStr">
         <is>
+          <t>Bernardo Conquet</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>Jairo Prieto</t>
+        </is>
+      </c>
+      <c r="G14" s="6" t="inlineStr">
+        <is>
           <t>Miguel Contreras</t>
         </is>
       </c>
-      <c r="F14" s="6" t="inlineStr">
-        <is>
-          <t>Bernardo Conquet</t>
-        </is>
-      </c>
-      <c r="G14" s="6" t="inlineStr">
-        <is>
-          <t>Juan Gil</t>
-        </is>
-      </c>
       <c r="H14" s="6" t="inlineStr">
         <is>
-          <t>Miguel Contreras</t>
+          <t>Jairo Prieto</t>
         </is>
       </c>
     </row>
